--- a/input/static_data/cost/season_16/player_cost_GW3.xlsx
+++ b/input/static_data/cost/season_16/player_cost_GW3.xlsx
@@ -407,37 +407,37 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C9" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D9" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F9" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G9" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H9" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I9" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J9" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K9" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L9" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="10">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C10" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D10" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E10" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F10" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G10" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H10" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I10" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J10" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K10" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L10" t="n">
-        <v>4600000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="11">
@@ -483,37 +483,37 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L11" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="12">
@@ -749,37 +749,37 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D18" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E18" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F18" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G18" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H18" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I18" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J18" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K18" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L18" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="19">
@@ -863,37 +863,37 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C21" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D21" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E21" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F21" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G21" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H21" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I21" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J21" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K21" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L21" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="22">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="C31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="D31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="E31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="F31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="G31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="H31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="I31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="J31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="K31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
       <c r="L31" t="n">
-        <v>4200000.0</v>
+        <v>4100000.0</v>
       </c>
     </row>
     <row r="32">
@@ -1585,37 +1585,37 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L40" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="41">
@@ -2155,37 +2155,37 @@
         <v>54.0</v>
       </c>
       <c r="B55" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C55" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D55" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E55" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F55" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G55" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H55" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I55" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J55" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K55" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L55" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="56">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C59" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D59" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E59" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F59" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G59" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H59" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I59" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J59" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K59" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L59" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="60">
@@ -2839,37 +2839,37 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C73" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D73" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E73" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F73" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G73" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H73" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I73" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J73" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K73" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L73" t="n">
-        <v>4300000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="74">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C76" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D76" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E76" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F76" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G76" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H76" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I76" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J76" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K76" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L76" t="n">
-        <v>6200000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="77">
@@ -3523,37 +3523,37 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L91" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="92">
@@ -3789,37 +3789,37 @@
         <v>97.0</v>
       </c>
       <c r="B98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L98" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="99">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L107" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="108">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C116" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D116" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E116" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F116" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G116" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H116" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I116" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J116" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K116" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L116" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="117">
@@ -4777,37 +4777,37 @@
         <v>123.0</v>
       </c>
       <c r="B124" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C124" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D124" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E124" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F124" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G124" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H124" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I124" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J124" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K124" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L124" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="125">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C128" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D128" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E128" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F128" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G128" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H128" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I128" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J128" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K128" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L128" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="129">
@@ -4967,37 +4967,37 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L129" t="n">
-        <v>5500000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="130">
@@ -5005,37 +5005,37 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C130" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D130" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E130" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F130" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G130" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H130" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I130" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J130" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K130" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L130" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="131">
@@ -5043,37 +5043,37 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C131" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D131" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E131" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F131" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G131" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H131" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I131" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J131" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K131" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L131" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="132">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L133" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L138" t="n">
-        <v>5100000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="139">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>6700000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="C165" t="n">
-        <v>6700000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="D165" t="n">
-        <v>6700000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="E165" t="n">
-        <v>6700000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="F165" t="n">
-        <v>6700000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="G165" t="n">
-        <v>6700000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="H165" t="n">
-        <v>6700000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="I165" t="n">
-        <v>6700000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="J165" t="n">
-        <v>6700000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="K165" t="n">
-        <v>6700000.0</v>
+        <v>6500000.0</v>
       </c>
       <c r="L165" t="n">
-        <v>6700000.0</v>
+        <v>6500000.0</v>
       </c>
     </row>
     <row r="166">
@@ -6373,37 +6373,37 @@
         <v>165.0</v>
       </c>
       <c r="B166" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="C166" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="D166" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="E166" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="F166" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="G166" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="H166" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="I166" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="J166" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="K166" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
       <c r="L166" t="n">
-        <v>4600000.0</v>
+        <v>4700000.0</v>
       </c>
     </row>
     <row r="167">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C175" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D175" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E175" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F175" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G175" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H175" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I175" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J175" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K175" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L175" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="176">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>6000000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C177" t="n">
-        <v>6000000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D177" t="n">
-        <v>6000000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E177" t="n">
-        <v>6000000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F177" t="n">
-        <v>6000000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G177" t="n">
-        <v>6000000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H177" t="n">
-        <v>6000000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I177" t="n">
-        <v>6000000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J177" t="n">
-        <v>6000000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K177" t="n">
-        <v>6000000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L177" t="n">
-        <v>6000000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="178">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L179" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="180">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C181" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D181" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E181" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F181" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G181" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H181" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I181" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J181" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K181" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L181" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="182">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="C184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="D184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="E184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="F184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="G184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="H184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="I184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="J184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="K184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
       <c r="L184" t="n">
-        <v>5500000.0</v>
+        <v>5600000.0</v>
       </c>
     </row>
     <row r="185">
@@ -7779,37 +7779,37 @@
         <v>202.0</v>
       </c>
       <c r="B203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L203" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="204">
@@ -7855,37 +7855,37 @@
         <v>204.0</v>
       </c>
       <c r="B205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L205" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="206">
@@ -7893,37 +7893,37 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C206" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D206" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E206" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F206" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G206" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H206" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I206" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J206" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K206" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L206" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="207">
@@ -8083,37 +8083,37 @@
         <v>210.0</v>
       </c>
       <c r="B211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L211" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="212">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L221" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="222">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L238" t="n">
-        <v>5600000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="239">
@@ -9299,37 +9299,37 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C243" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D243" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E243" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F243" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G243" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H243" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I243" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J243" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K243" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L243" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="244">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C253" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D253" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E253" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F253" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G253" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H253" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I253" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J253" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K253" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L253" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="254">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C266" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D266" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E266" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F266" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G266" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H266" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I266" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J266" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K266" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L266" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="267">
@@ -10211,37 +10211,37 @@
         <v>266.0</v>
       </c>
       <c r="B267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L267" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="268">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L269" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="270">
@@ -10363,37 +10363,37 @@
         <v>270.0</v>
       </c>
       <c r="B271" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C271" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D271" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E271" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F271" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G271" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H271" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I271" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J271" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K271" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L271" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="272">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L275" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="276">
@@ -10553,37 +10553,37 @@
         <v>275.0</v>
       </c>
       <c r="B276" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C276" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D276" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E276" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F276" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G276" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H276" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I276" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J276" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K276" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L276" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="277">
@@ -10591,37 +10591,37 @@
         <v>276.0</v>
       </c>
       <c r="B277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L277" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="278">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="C280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="D280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="E280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="F280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="G280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="H280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="I280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="J280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="K280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="L280" t="n">
-        <v>8900000.0</v>
+        <v>9000000.0</v>
       </c>
     </row>
     <row r="281">
@@ -11503,37 +11503,37 @@
         <v>300.0</v>
       </c>
       <c r="B301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="D301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="E301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="F301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="G301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="H301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="I301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="J301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="K301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="L301" t="n">
-        <v>4900000.0</v>
+        <v>5000000.0</v>
       </c>
     </row>
     <row r="302">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C302" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D302" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E302" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F302" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G302" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H302" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I302" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J302" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K302" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L302" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="303">
@@ -11579,37 +11579,37 @@
         <v>302.0</v>
       </c>
       <c r="B303" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C303" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D303" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E303" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F303" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G303" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H303" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I303" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J303" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K303" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L303" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="304">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C305" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D305" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E305" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F305" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G305" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H305" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I305" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J305" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K305" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L305" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="306">
@@ -11693,37 +11693,37 @@
         <v>305.0</v>
       </c>
       <c r="B306" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C306" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D306" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E306" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F306" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G306" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H306" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I306" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J306" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K306" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L306" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="307">
@@ -11845,37 +11845,37 @@
         <v>309.0</v>
       </c>
       <c r="B310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L310" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C312" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D312" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E312" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F312" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G312" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H312" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I312" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J312" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K312" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L312" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="313">
@@ -11997,37 +11997,37 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C314" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D314" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E314" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F314" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G314" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H314" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I314" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J314" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K314" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L314" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="315">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C316" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D316" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E316" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F316" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G316" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H316" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I316" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J316" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K316" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L316" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="317">
@@ -12149,37 +12149,37 @@
         <v>317.0</v>
       </c>
       <c r="B318" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C318" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D318" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E318" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F318" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G318" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H318" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I318" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J318" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K318" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L318" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="319">
@@ -12225,37 +12225,37 @@
         <v>319.0</v>
       </c>
       <c r="B320" t="n">
-        <v>6900000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="C320" t="n">
-        <v>6900000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="D320" t="n">
-        <v>6900000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="E320" t="n">
-        <v>6900000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="F320" t="n">
-        <v>6900000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="G320" t="n">
-        <v>6900000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="H320" t="n">
-        <v>6900000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="I320" t="n">
-        <v>6900000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="J320" t="n">
-        <v>6900000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="K320" t="n">
-        <v>6900000.0</v>
+        <v>1.0E8</v>
       </c>
       <c r="L320" t="n">
-        <v>6900000.0</v>
+        <v>1.0E8</v>
       </c>
     </row>
     <row r="321">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L323" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="C327" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="D327" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="E327" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="F327" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="G327" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="H327" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="I327" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="J327" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="K327" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="L327" t="n">
-        <v>7300000.0</v>
+        <v>7500000.0</v>
       </c>
     </row>
     <row r="328">
@@ -12605,37 +12605,37 @@
         <v>329.0</v>
       </c>
       <c r="B330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L330" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="331">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>9800000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="C331" t="n">
-        <v>9800000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="D331" t="n">
-        <v>9800000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="E331" t="n">
-        <v>9800000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="F331" t="n">
-        <v>9800000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="G331" t="n">
-        <v>9800000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="H331" t="n">
-        <v>9800000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="I331" t="n">
-        <v>9800000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="J331" t="n">
-        <v>9800000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="K331" t="n">
-        <v>9800000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="L331" t="n">
-        <v>9800000.0</v>
+        <v>1.0E7</v>
       </c>
     </row>
     <row r="332">
@@ -12719,37 +12719,37 @@
         <v>332.0</v>
       </c>
       <c r="B333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L333" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="334">
@@ -12833,37 +12833,37 @@
         <v>335.0</v>
       </c>
       <c r="B336" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="C336" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="D336" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="E336" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="F336" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="G336" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="H336" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="I336" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="J336" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="K336" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
       <c r="L336" t="n">
-        <v>7100000.0</v>
+        <v>7200000.0</v>
       </c>
     </row>
     <row r="337">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C338" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D338" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E338" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F338" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G338" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H338" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I338" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J338" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K338" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L338" t="n">
-        <v>7300000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="339">
@@ -13251,37 +13251,37 @@
         <v>346.0</v>
       </c>
       <c r="B347" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C347" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D347" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E347" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F347" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G347" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H347" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I347" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J347" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K347" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L347" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="348">
@@ -13631,37 +13631,37 @@
         <v>356.0</v>
       </c>
       <c r="B357" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C357" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D357" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E357" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F357" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G357" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H357" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I357" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J357" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K357" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L357" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="358">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C362" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D362" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E362" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F362" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G362" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H362" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I362" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J362" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K362" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L362" t="n">
-        <v>6500000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="363">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="C366" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="D366" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="E366" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="F366" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="G366" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="H366" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="I366" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="J366" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="K366" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
       <c r="L366" t="n">
-        <v>7700000.0</v>
+        <v>7500000.0</v>
       </c>
     </row>
     <row r="367">
@@ -14543,37 +14543,37 @@
         <v>380.0</v>
       </c>
       <c r="B381" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C381" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D381" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E381" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F381" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G381" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H381" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I381" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J381" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K381" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L381" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="382">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="C387" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="D387" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="E387" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="F387" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="G387" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="H387" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="I387" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="J387" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="K387" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="L387" t="n">
-        <v>9200000.0</v>
+        <v>9300000.0</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C389" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D389" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E389" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F389" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G389" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H389" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I389" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J389" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K389" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L389" t="n">
-        <v>7000000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L394" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="C395" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="D395" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="E395" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="F395" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="G395" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="H395" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="I395" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="J395" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="K395" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
       <c r="L395" t="n">
-        <v>8300000.0</v>
+        <v>8100000.0</v>
       </c>
     </row>
     <row r="396">
@@ -15113,37 +15113,37 @@
         <v>395.0</v>
       </c>
       <c r="B396" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C396" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D396" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E396" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F396" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G396" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H396" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I396" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J396" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K396" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L396" t="n">
-        <v>4500000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="397">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="C403" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="D403" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="E403" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="F403" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="G403" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="H403" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="I403" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="J403" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="K403" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="L403" t="n">
-        <v>7600000.0</v>
+        <v>7800000.0</v>
       </c>
     </row>
     <row r="404">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>1.06E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="C407" t="n">
-        <v>1.06E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="D407" t="n">
-        <v>1.06E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="E407" t="n">
-        <v>1.06E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="F407" t="n">
-        <v>1.06E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="G407" t="n">
-        <v>1.06E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="H407" t="n">
-        <v>1.06E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="I407" t="n">
-        <v>1.06E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="J407" t="n">
-        <v>1.06E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="K407" t="n">
-        <v>1.06E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="L407" t="n">
-        <v>1.06E7</v>
+        <v>1.08E7</v>
       </c>
     </row>
     <row r="408">
@@ -15569,37 +15569,37 @@
         <v>407.0</v>
       </c>
       <c r="B408" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C408" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D408" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E408" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F408" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G408" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H408" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I408" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J408" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K408" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L408" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="409">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="C414" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="D414" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="E414" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="F414" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="G414" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="H414" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="I414" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="J414" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="K414" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="L414" t="n">
-        <v>8800000.0</v>
+        <v>8900000.0</v>
       </c>
     </row>
     <row r="415">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="C415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="D415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="E415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="F415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="G415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="H415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="I415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="J415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="K415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
       <c r="L415" t="n">
-        <v>7700000.0</v>
+        <v>7800000.0</v>
       </c>
     </row>
     <row r="416">
@@ -15911,37 +15911,37 @@
         <v>416.0</v>
       </c>
       <c r="B417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="C417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="D417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="E417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="F417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="G417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="H417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="I417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="J417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="K417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
       <c r="L417" t="n">
-        <v>7600000.0</v>
+        <v>7700000.0</v>
       </c>
     </row>
     <row r="418">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C420" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D420" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E420" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F420" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G420" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H420" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I420" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J420" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K420" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L420" t="n">
-        <v>5800000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="421">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>1.13E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="C429" t="n">
-        <v>1.13E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="D429" t="n">
-        <v>1.13E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="E429" t="n">
-        <v>1.13E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="F429" t="n">
-        <v>1.13E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="G429" t="n">
-        <v>1.13E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="H429" t="n">
-        <v>1.13E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="I429" t="n">
-        <v>1.13E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="J429" t="n">
-        <v>1.13E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="K429" t="n">
-        <v>1.13E7</v>
+        <v>1.1E7</v>
       </c>
       <c r="L429" t="n">
-        <v>1.13E7</v>
+        <v>1.1E7</v>
       </c>
     </row>
     <row r="430">
@@ -16405,37 +16405,37 @@
         <v>429.0</v>
       </c>
       <c r="B430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L430" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="431">
@@ -16709,37 +16709,37 @@
         <v>437.0</v>
       </c>
       <c r="B438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L438" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="439">
@@ -16937,37 +16937,37 @@
         <v>443.0</v>
       </c>
       <c r="B444" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="C444" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="D444" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="E444" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="F444" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="G444" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="H444" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="I444" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="J444" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="K444" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
       <c r="L444" t="n">
-        <v>6800000.0</v>
+        <v>6900000.0</v>
       </c>
     </row>
     <row r="445">
@@ -16975,37 +16975,37 @@
         <v>444.0</v>
       </c>
       <c r="B445" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C445" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D445" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E445" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F445" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G445" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H445" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I445" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J445" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K445" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L445" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="446">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="C450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="D450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="E450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="F450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="I450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="J450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="K450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="L450" t="n">
-        <v>5900000.0</v>
+        <v>6000000.0</v>
       </c>
     </row>
     <row r="451">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L453" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="454">
@@ -17317,37 +17317,37 @@
         <v>453.0</v>
       </c>
       <c r="B454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L454" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="455">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="C458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="D458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="E458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="F458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="G458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="H458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="I458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="J458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="K458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
       <c r="L458" t="n">
-        <v>5800000.0</v>
+        <v>5900000.0</v>
       </c>
     </row>
     <row r="459">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="C461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="D461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="E461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="F461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="G461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="H461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="I461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="J461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="K461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
       <c r="L461" t="n">
-        <v>4800000.0</v>
+        <v>4900000.0</v>
       </c>
     </row>
     <row r="462">
@@ -17735,37 +17735,37 @@
         <v>464.0</v>
       </c>
       <c r="B465" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C465" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D465" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E465" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F465" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G465" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H465" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I465" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J465" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K465" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L465" t="n">
-        <v>5000000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="466">
@@ -17925,37 +17925,37 @@
         <v>469.0</v>
       </c>
       <c r="B470" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C470" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D470" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E470" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F470" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G470" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H470" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I470" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J470" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K470" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L470" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="471">
@@ -18001,37 +18001,37 @@
         <v>471.0</v>
       </c>
       <c r="B472" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C472" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D472" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E472" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F472" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G472" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H472" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I472" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J472" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K472" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L472" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="473">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L475" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="476">
@@ -18229,37 +18229,37 @@
         <v>477.0</v>
       </c>
       <c r="B478" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="C478" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="D478" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="E478" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="F478" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="G478" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="H478" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="I478" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="J478" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="K478" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
       <c r="L478" t="n">
-        <v>5100000.0</v>
+        <v>5200000.0</v>
       </c>
     </row>
     <row r="479">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C482" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D482" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E482" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F482" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G482" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H482" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I482" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J482" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K482" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L482" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="483">
@@ -18419,37 +18419,37 @@
         <v>482.0</v>
       </c>
       <c r="B483" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C483" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D483" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E483" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F483" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G483" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H483" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I483" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J483" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K483" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L483" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="484">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C484" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D484" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E484" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F484" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G484" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H484" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I484" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J484" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K484" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L484" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C485" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D485" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E485" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F485" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G485" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H485" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I485" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J485" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K485" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L485" t="n">
-        <v>8200000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L486" t="n">
-        <v>6900000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="487">
@@ -18647,37 +18647,37 @@
         <v>488.0</v>
       </c>
       <c r="B489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L489" t="n">
-        <v>6800000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="490">
@@ -18685,37 +18685,37 @@
         <v>489.0</v>
       </c>
       <c r="B490" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="C490" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="D490" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="E490" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="F490" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="G490" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="H490" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="I490" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="J490" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="K490" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
       <c r="L490" t="n">
-        <v>7700000.0</v>
+        <v>7400000.0</v>
       </c>
     </row>
     <row r="491">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="C496" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="D496" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="E496" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="F496" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="G496" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="H496" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="I496" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="J496" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="K496" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
       <c r="L496" t="n">
-        <v>5300000.0</v>
+        <v>5100000.0</v>
       </c>
     </row>
     <row r="497">
@@ -19065,37 +19065,37 @@
         <v>499.0</v>
       </c>
       <c r="B500" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C500" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D500" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E500" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F500" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G500" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H500" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I500" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J500" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K500" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L500" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="501">
@@ -19103,37 +19103,37 @@
         <v>500.0</v>
       </c>
       <c r="B501" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C501" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D501" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E501" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F501" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G501" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H501" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I501" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J501" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K501" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L501" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="502">
@@ -19407,37 +19407,37 @@
         <v>508.0</v>
       </c>
       <c r="B509" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C509" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D509" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E509" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F509" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G509" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H509" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I509" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J509" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K509" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L509" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="510">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="C510" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="D510" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="E510" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="F510" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="G510" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="H510" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="I510" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="J510" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="K510" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
       <c r="L510" t="n">
-        <v>4700000.0</v>
+        <v>4600000.0</v>
       </c>
     </row>
     <row r="511">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C513" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D513" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E513" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F513" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G513" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H513" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I513" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J513" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K513" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L513" t="n">
-        <v>6500000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="514">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="C517" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="D517" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="E517" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="F517" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="G517" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="H517" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="I517" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="J517" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="K517" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
       <c r="L517" t="n">
-        <v>4300000.0</v>
+        <v>4400000.0</v>
       </c>
     </row>
     <row r="518">
@@ -19825,37 +19825,37 @@
         <v>519.0</v>
       </c>
       <c r="B520" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="C520" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="D520" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="E520" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="F520" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="G520" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="H520" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="I520" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="J520" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="K520" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
       <c r="L520" t="n">
-        <v>4700000.0</v>
+        <v>4800000.0</v>
       </c>
     </row>
     <row r="521">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="C521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="D521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="E521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="F521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="G521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="H521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="I521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="J521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="K521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
       <c r="L521" t="n">
-        <v>5300000.0</v>
+        <v>5400000.0</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="C522" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="D522" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="E522" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="F522" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="G522" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="H522" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="I522" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="J522" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="K522" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
       <c r="L522" t="n">
-        <v>4400000.0</v>
+        <v>4500000.0</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C523" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D523" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E523" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F523" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G523" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H523" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I523" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J523" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K523" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L523" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="C524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="D524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="E524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="F524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="G524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="H524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="I524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="J524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="K524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
       <c r="L524" t="n">
-        <v>7200000.0</v>
+        <v>7300000.0</v>
       </c>
     </row>
     <row r="525">
@@ -20053,37 +20053,37 @@
         <v>525.0</v>
       </c>
       <c r="B526" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C526" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D526" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E526" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F526" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G526" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H526" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I526" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J526" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K526" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L526" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="527">
@@ -20243,37 +20243,37 @@
         <v>530.0</v>
       </c>
       <c r="B531" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="C531" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="D531" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="E531" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="F531" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="G531" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="H531" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="I531" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="J531" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="K531" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
       <c r="L531" t="n">
-        <v>5200000.0</v>
+        <v>5300000.0</v>
       </c>
     </row>
     <row r="532">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C534" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D534" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E534" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F534" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G534" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H534" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I534" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J534" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K534" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L534" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="535">
@@ -20623,37 +20623,37 @@
         <v>540.0</v>
       </c>
       <c r="B541" t="n">
-        <v>8000000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="C541" t="n">
-        <v>8000000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="D541" t="n">
-        <v>8000000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="E541" t="n">
-        <v>8000000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="F541" t="n">
-        <v>8000000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="G541" t="n">
-        <v>8000000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="H541" t="n">
-        <v>8000000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="I541" t="n">
-        <v>8000000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="J541" t="n">
-        <v>8000000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="K541" t="n">
-        <v>8000000.0</v>
+        <v>8300000.0</v>
       </c>
       <c r="L541" t="n">
-        <v>8000000.0</v>
+        <v>8300000.0</v>
       </c>
     </row>
     <row r="542">
@@ -20851,37 +20851,37 @@
         <v>546.0</v>
       </c>
       <c r="B547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L547" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="548">
@@ -20889,37 +20889,37 @@
         <v>547.0</v>
       </c>
       <c r="B548" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C548" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D548" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E548" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F548" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G548" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H548" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I548" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J548" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K548" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L548" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="549">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C549" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D549" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E549" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F549" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G549" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H549" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I549" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J549" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K549" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L549" t="n">
-        <v>7300000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L550" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
     <row r="551">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="C557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="D557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="E557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="F557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="G557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="H557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="I557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="J557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="K557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
       <c r="L557" t="n">
-        <v>8700000.0</v>
+        <v>8800000.0</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>1.01E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="C558" t="n">
-        <v>1.01E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="D558" t="n">
-        <v>1.01E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="E558" t="n">
-        <v>1.01E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="F558" t="n">
-        <v>1.01E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="G558" t="n">
-        <v>1.01E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="H558" t="n">
-        <v>1.01E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="I558" t="n">
-        <v>1.01E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="J558" t="n">
-        <v>1.01E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="K558" t="n">
-        <v>1.01E7</v>
+        <v>1.0E7</v>
       </c>
       <c r="L558" t="n">
-        <v>1.01E7</v>
+        <v>1.0E7</v>
       </c>
     </row>
     <row r="559">
@@ -21421,37 +21421,37 @@
         <v>561.0</v>
       </c>
       <c r="B562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="C562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="D562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="E562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="F562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="G562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="H562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="I562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="J562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="K562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
       <c r="L562" t="n">
-        <v>7700000.0</v>
+        <v>7600000.0</v>
       </c>
     </row>
     <row r="563">
@@ -21535,37 +21535,37 @@
         <v>564.0</v>
       </c>
       <c r="B565" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="C565" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="D565" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="E565" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="F565" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="G565" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="H565" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="I565" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="J565" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="K565" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
       <c r="L565" t="n">
-        <v>5600000.0</v>
+        <v>5700000.0</v>
       </c>
     </row>
     <row r="566">
@@ -21611,37 +21611,37 @@
         <v>566.0</v>
       </c>
       <c r="B567" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C567" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D567" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E567" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F567" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G567" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H567" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I567" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J567" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K567" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L567" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="568">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="C568" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="D568" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="E568" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="F568" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="G568" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="H568" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="I568" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="J568" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="K568" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
       <c r="L568" t="n">
-        <v>8700000.0</v>
+        <v>8900000.0</v>
       </c>
     </row>
     <row r="569">
@@ -21915,37 +21915,37 @@
         <v>574.0</v>
       </c>
       <c r="B575" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="C575" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="D575" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="E575" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="F575" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="G575" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="H575" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="I575" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="J575" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="K575" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
       <c r="L575" t="n">
-        <v>6900000.0</v>
+        <v>7100000.0</v>
       </c>
     </row>
     <row r="576">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="C576" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="D576" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="E576" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="F576" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="G576" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="H576" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="I576" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="J576" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="K576" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
       <c r="L576" t="n">
-        <v>5700000.0</v>
+        <v>5800000.0</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>9700000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="C577" t="n">
-        <v>9700000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="D577" t="n">
-        <v>9700000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="E577" t="n">
-        <v>9700000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="F577" t="n">
-        <v>9700000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="G577" t="n">
-        <v>9700000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="H577" t="n">
-        <v>9700000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="I577" t="n">
-        <v>9700000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="J577" t="n">
-        <v>9700000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="K577" t="n">
-        <v>9700000.0</v>
+        <v>9900000.0</v>
       </c>
       <c r="L577" t="n">
-        <v>9700000.0</v>
+        <v>9900000.0</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="C578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="D578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="E578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="F578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="G578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="H578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="I578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="J578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="K578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
       <c r="L578" t="n">
-        <v>8500000.0</v>
+        <v>8400000.0</v>
       </c>
     </row>
     <row r="579">
@@ -22105,37 +22105,37 @@
         <v>579.0</v>
       </c>
       <c r="B580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="C580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="D580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="E580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="F580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="G580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="H580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="I580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="J580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="K580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
       <c r="L580" t="n">
-        <v>6600000.0</v>
+        <v>6700000.0</v>
       </c>
     </row>
     <row r="581">
@@ -22181,37 +22181,37 @@
         <v>581.0</v>
       </c>
       <c r="B582" t="n">
-        <v>1.31E7</v>
+        <v>1.3E7</v>
       </c>
       <c r="C582" t="n">
-        <v>1.31E7</v>
+        <v>1.3E7</v>
       </c>
       <c r="D582" t="n">
-        <v>1.31E7</v>
+        <v>1.3E7</v>
       </c>
       <c r="E582" t="n">
-        <v>1.31E7</v>
+        <v>1.3E7</v>
       </c>
       <c r="F582" t="n">
-        <v>1.31E7</v>
+        <v>1.3E7</v>
       </c>
       <c r="G582" t="n">
-        <v>1.31E7</v>
+        <v>1.3E7</v>
       </c>
       <c r="H582" t="n">
-        <v>1.31E7</v>
+        <v>1.3E7</v>
       </c>
       <c r="I582" t="n">
-        <v>1.31E7</v>
+        <v>1.3E7</v>
       </c>
       <c r="J582" t="n">
-        <v>1.31E7</v>
+        <v>1.3E7</v>
       </c>
       <c r="K582" t="n">
-        <v>1.31E7</v>
+        <v>1.3E7</v>
       </c>
       <c r="L582" t="n">
-        <v>1.31E7</v>
+        <v>1.3E7</v>
       </c>
     </row>
     <row r="583">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>1.14E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="C584" t="n">
-        <v>1.14E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="D584" t="n">
-        <v>1.14E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="E584" t="n">
-        <v>1.14E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="F584" t="n">
-        <v>1.14E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="G584" t="n">
-        <v>1.14E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="H584" t="n">
-        <v>1.14E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="I584" t="n">
-        <v>1.14E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="J584" t="n">
-        <v>1.14E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="K584" t="n">
-        <v>1.14E7</v>
+        <v>1.17E7</v>
       </c>
       <c r="L584" t="n">
-        <v>1.14E7</v>
+        <v>1.17E7</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="C585" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="D585" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="E585" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="F585" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="G585" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="H585" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="I585" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="J585" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="K585" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
       <c r="L585" t="n">
-        <v>9400000.0</v>
+        <v>9300000.0</v>
       </c>
     </row>
     <row r="586">
@@ -22333,37 +22333,37 @@
         <v>585.0</v>
       </c>
       <c r="B586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="C586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="D586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="E586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="F586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="G586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="H586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="I586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="J586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="K586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
       <c r="L586" t="n">
-        <v>6900000.0</v>
+        <v>6800000.0</v>
       </c>
     </row>
     <row r="587">
@@ -22561,37 +22561,37 @@
         <v>591.0</v>
       </c>
       <c r="B592" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="C592" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="D592" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="E592" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="F592" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="G592" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="H592" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="I592" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="J592" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="K592" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
       <c r="L592" t="n">
-        <v>8600000.0</v>
+        <v>8500000.0</v>
       </c>
     </row>
     <row r="593">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C593" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D593" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E593" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F593" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G593" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H593" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I593" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J593" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K593" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L593" t="n">
-        <v>6400000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="594">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="C596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="D596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="E596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="F596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="G596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="H596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="I596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="J596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="K596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
       <c r="L596" t="n">
-        <v>6100000.0</v>
+        <v>6200000.0</v>
       </c>
     </row>
     <row r="597">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="C607" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="D607" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="E607" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="F607" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="G607" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="H607" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="I607" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="J607" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="K607" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
       <c r="L607" t="n">
-        <v>1.07E7</v>
+        <v>1.08E7</v>
       </c>
     </row>
     <row r="608">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="C609" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="D609" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="E609" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="F609" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="G609" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="H609" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="I609" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="J609" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K609" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="L609" t="n">
-        <v>7100000.0</v>
+        <v>7000000.0</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L611" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="C616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="D616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="E616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="F616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="G616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="H616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="I616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="J616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="K616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
       <c r="L616" t="n">
-        <v>6300000.0</v>
+        <v>6400000.0</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="C617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="D617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="E617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="F617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="G617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="H617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="I617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="J617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="K617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
       <c r="L617" t="n">
-        <v>6700000.0</v>
+        <v>6600000.0</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="C618" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="D618" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="E618" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="F618" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="G618" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="H618" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="I618" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="J618" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="K618" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
       <c r="L618" t="n">
-        <v>9900000.0</v>
+        <v>1.0E7</v>
       </c>
     </row>
     <row r="619">
@@ -23625,37 +23625,37 @@
         <v>619.0</v>
       </c>
       <c r="B620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="C620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="D620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="E620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="F620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="G620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="H620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="I620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="J620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="K620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
       <c r="L620" t="n">
-        <v>6200000.0</v>
+        <v>6300000.0</v>
       </c>
     </row>
     <row r="621">
@@ -23853,37 +23853,37 @@
         <v>625.0</v>
       </c>
       <c r="B626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="C626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="D626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="E626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="F626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="G626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="H626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="I626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="J626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="K626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
       <c r="L626" t="n">
-        <v>5400000.0</v>
+        <v>5500000.0</v>
       </c>
     </row>
   </sheetData>
